--- a/forms/app/ebs_assessment_training_context.xlsx
+++ b/forms/app/ebs_assessment_training_context.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="205">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">ebs_intro</t>
   </si>
   <si>
-    <t xml:space="preserve">Event-Based Surveillance</t>
+    <t xml:space="preserve">Covid-19 Education</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -147,7 +147,43 @@
     <t xml:space="preserve">covid_introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">To avoid infection of yourself and others with COVID-19, it is important to practice the following hygiene measures: </t>
+    <t xml:space="preserve">To avoid infection of yourself and others with COVID-19, it is important to practice the following hygiene measures:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning_objectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Learning Objectives**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand_hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Know effective hand hygiene practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infected_secretions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Know the correct way to handle infected secretions from the nose, eyes and mouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Know good household hygiene practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Know when to self-distance and self-quarantine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reporting_cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Know when to report a patient with suspected infection to the local health authorities</t>
   </si>
   <si>
     <t xml:space="preserve">isolate</t>
@@ -240,7 +276,7 @@
     <t xml:space="preserve">Do not cough near others. Always cough or sneeze into a tissue or your bent elbow. If you cough in your hands, wash your hands after with soap and water.</t>
   </si>
   <si>
-    <t xml:space="preserve">sneeze_cough_image</t>
+    <t xml:space="preserve">sneeze_image</t>
   </si>
   <si>
     <t xml:space="preserve">blownose_sneeze_combine.png</t>
@@ -378,25 +414,49 @@
     <t xml:space="preserve">result</t>
   </si>
   <si>
-    <t xml:space="preserve">Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 blue</t>
+    <t xml:space="preserve">Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
   </si>
   <si>
     <t xml:space="preserve">success_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Great job! You have answered all the questions correctly. Your EBS training is complete!</t>
+    <t xml:space="preserve">You have answered all the questions correctly! You may review this content on your profile page.</t>
   </si>
   <si>
     <t xml:space="preserve">${assessment_passed} = ‘yes’</t>
   </si>
   <si>
-    <t xml:space="preserve">success_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may now start reporting on households using EBS.</t>
+    <t xml:space="preserve">select_one confidence_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">success_confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How confident do you feel in your mastery of this content?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effective_performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will you be able to effectively perform the task?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any other questions or feedback on this topic? (Optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your supervisor will follow up</t>
   </si>
   <si>
     <t xml:space="preserve">fail_1</t>
@@ -414,61 +474,19 @@
     <t xml:space="preserve">We’ll generate another task for you to go through the workflow again.</t>
   </si>
   <si>
-    <t xml:space="preserve">fail_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please review the following and resubmit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_wash_sug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handwashing (and its ability to prevent covid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${hand_washing_q} != ‘both_soap_and_water_or_hand_saniter’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand_wash_duration_sug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handwashing (and required duration for effectiveness)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${hand_wash_duration_q} != ‘at_least_20_seconds’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sneeze_cough_sug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${sneezing_coughing_q} != ‘cough_into_your_elbow_or_tissue’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_sug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${household_q} != ‘a_disinfectant’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social_distance_sug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Distancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${social_distancing_q} != ‘at_least_2_meters’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fail_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Educating ourselves and the community is the best way to stop covid.</t>
+    <t xml:space="preserve">Fail_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for your persistence, educating ourselves and our communities is the best way to stop covid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail_assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you need assistance with this topic?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -558,6 +576,39 @@
     <t xml:space="preserve">At least 2 meters</t>
   </si>
   <si>
+    <t xml:space="preserve">confidence_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extreme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely confident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very confident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somewhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat confident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little confident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not confident at all</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
@@ -576,7 +627,7 @@
     <t xml:space="preserve">instance_name</t>
   </si>
   <si>
-    <t xml:space="preserve">EBS Training</t>
+    <t xml:space="preserve">Training</t>
   </si>
   <si>
     <t xml:space="preserve">ebs_assessment_training_context</t>
@@ -946,27 +997,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA69"/>
+  <dimension ref="A1:BA72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="I75" activeCellId="0" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="1" width="52.27"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="1" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="1" width="29.18"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="1" width="25.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="52.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="11.52"/>
@@ -1166,7 +1217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1202,831 +1253,852 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="22" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="58.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="26" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="M22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="M28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="30" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="M27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="M33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="35" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="M31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+    <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="39" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="M35" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="M41" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="43" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="46" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="F47" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="I53" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F63" s="1" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="1" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="1" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
+      <c r="C69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="true" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:C22">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A21="end group", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $C21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
+      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A25="end group", $B25 = "", $C25 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $C31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A25="end repeat", $B25 = "", $C25 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C33">
     <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C32:C33">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C33">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C33">
     <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+  <conditionalFormatting sqref="C32:C33">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $C26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $C32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C33">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C33">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
     <cfRule type="containsText" priority="23" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+  <conditionalFormatting sqref="C36:C37">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+  <conditionalFormatting sqref="C36:C37">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+      <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $C36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
     <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="containsText" priority="30" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $C34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C41">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2047,10 +2119,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,7 +2134,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -2073,145 +2145,200 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2232,8 +2359,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2247,40 +2374,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C2" s="11" t="n">
         <f aca="true">NOW()</f>
-        <v>43963.6624112879</v>
+        <v>43994.0001890724</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
